--- a/biology/Zoologie/Dundubia/Dundubia.xlsx
+++ b/biology/Zoologie/Dundubia/Dundubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dundubia est un genre d'insectes hémiptères de la famille des Cicadidae (cigales) et de la sous-famille des Cicadinae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dundubia est un genre d'insectes hémiptères de la famille des Cicadidae (cigales) et de la sous-famille des Cicadinae. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dundubia a été décrit par les entomologistes français Amyot et Audinet-Serville en 1843 avec pour espèce type Dundubia vaginata (Tettigonia vaginata Fabricius, 1787)[2].
-Le nom Dundubia provient du sanskrit दुंदुभि (dundubhi) qui signifie tambour[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dundubia a été décrit par les entomologistes français Amyot et Audinet-Serville en 1843 avec pour espèce type Dundubia vaginata (Tettigonia vaginata Fabricius, 1787).
+Le nom Dundubia provient du sanskrit दुंदुभि (dundubhi) qui signifie tambour.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tête est triangulaire avec un gros bord antérieur notablement avancé et un front présentant un court sillon longitudinal au milieu[2].
-Les yeux, assez saillants, sont gros et ovalaires[2].
-Le prothorax n'est pas dilaté de chaque côté[2].
-Les opercules des mâles sont d'une longueur extraordinaire, s'étendant presque jusqu'à l'extrémité de l'abdomen[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête est triangulaire avec un gros bord antérieur notablement avancé et un front présentant un court sillon longitudinal au milieu.
+Les yeux, assez saillants, sont gros et ovalaires.
+Le prothorax n'est pas dilaté de chaque côté.
+Les opercules des mâles sont d'une longueur extraordinaire, s'étendant presque jusqu'à l'extrémité de l'abdomen.
 </t>
         </is>
       </c>
@@ -577,41 +593,43 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre comporte 32 espèces [3] :
-Dundubia andamansidensis (Boulard, 2001)[4]
-Dundubia annandalei Boulard, 2007[5]
-Dundubia ayutthaya Beuk, 1996[6]
-Dundubia cochlearata Overmeer &amp; Duffels, 1967[7]
-Dundubia crepitans Boulard, 2005[8]
-Dundubia dubia Lee, 2009[9]
-Dundubia emanatura Distant, 1889[10]
-Dundubia ensifera Bloem &amp; Duffels, 1976[11]
-Dundubia euterpe Bloem &amp; Duffels, 1976[11]
-Dundubia feae (Distant, 1892)[12]
-Dundubia flava Lee, 2009[9]
-Dundubia gravesteini Duffels, 1976[13]
-Dundubia hainanensis (Distant, 1901)[14]
-Dundubia hastata (Moulton, J.C., 1923)[15]
-Dundubia jacoona (Distant, 1888)[16]
-Dundubia kebuna Moulton, J.C., 1923[15]
-Dundubia laterocurvata Beuk, 1996[6]
-Dundubia myitkyinensis Beuk, 1996[6]
-Dundubia nagarasingna Distant, 1881[17]
-Dundubia nigripes (Moulton, J.C., 1923)[15]
-Dundubia nigripesoides Boulard, 2008[18]
-Dundubia oopaga (Distant, 1881)[17]
-Dundubia rafflesii Distant, 1883[19]
-Dundubia rhamphodes Bloem &amp; Duffels, 1976[11]
-Dundubia rufivena Walker, F., 1850[20]
-Dundubia simalurensis Overmeer &amp; Duffels, 1967[7]
-Dundubia sinbyudaw Beuk, 1996[6]
-Dundubia solokensis Overmeer &amp; Duffels, 1967[7]
-Dundubia somraji Boulard, 2003[21]
-Dundubia spiculata Noualhier, 1896[22]
-Dundubia terpsichore (Walker, F., 1850)[20]
-Dundubia vaginata (Fabricius, 1787)[23]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre comporte 32 espèces  :
+Dundubia andamansidensis (Boulard, 2001)
+Dundubia annandalei Boulard, 2007
+Dundubia ayutthaya Beuk, 1996
+Dundubia cochlearata Overmeer &amp; Duffels, 1967
+Dundubia crepitans Boulard, 2005
+Dundubia dubia Lee, 2009
+Dundubia emanatura Distant, 1889
+Dundubia ensifera Bloem &amp; Duffels, 1976
+Dundubia euterpe Bloem &amp; Duffels, 1976
+Dundubia feae (Distant, 1892)
+Dundubia flava Lee, 2009
+Dundubia gravesteini Duffels, 1976
+Dundubia hainanensis (Distant, 1901)
+Dundubia hastata (Moulton, J.C., 1923)
+Dundubia jacoona (Distant, 1888)
+Dundubia kebuna Moulton, J.C., 1923
+Dundubia laterocurvata Beuk, 1996
+Dundubia myitkyinensis Beuk, 1996
+Dundubia nagarasingna Distant, 1881
+Dundubia nigripes (Moulton, J.C., 1923)
+Dundubia nigripesoides Boulard, 2008
+Dundubia oopaga (Distant, 1881)
+Dundubia rafflesii Distant, 1883
+Dundubia rhamphodes Bloem &amp; Duffels, 1976
+Dundubia rufivena Walker, F., 1850
+Dundubia simalurensis Overmeer &amp; Duffels, 1967
+Dundubia sinbyudaw Beuk, 1996
+Dundubia solokensis Overmeer &amp; Duffels, 1967
+Dundubia somraji Boulard, 2003
+Dundubia spiculata Noualhier, 1896
+Dundubia terpsichore (Walker, F., 1850)
+Dundubia vaginata (Fabricius, 1787)</t>
         </is>
       </c>
     </row>
